--- a/0. Analysis/mappingFiles.xlsx
+++ b/0. Analysis/mappingFiles.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gissella_BejaranoNic\Documents\PeruvianSignLanguage\0. Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1159A-AF43-4F50-9676-220F4DD25828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08B85CA-807A-4650-8CDE-CCE5F7BF5B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{175521FD-9AE3-4D45-A46E-34A0EEC9E33B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="119">
   <si>
     <t>Input</t>
   </si>
@@ -56,15 +56,6 @@
   </si>
   <si>
     <t>Data/AEC/Videos/RawVideos</t>
-  </si>
-  <si>
-    <t>crop_video</t>
-  </si>
-  <si>
-    <t>convertToLine</t>
-  </si>
-  <si>
-    <t>convert_subtitle_sentence</t>
   </si>
   <si>
     <t>Data/PUCP/Videos/original</t>
@@ -342,6 +333,75 @@
   </si>
   <si>
     <t>./project/log</t>
+  </si>
+  <si>
+    <t>./data/test_labels.csv</t>
+  </si>
+  <si>
+    <t>4.predict.sh</t>
+  </si>
+  <si>
+    <t>predict.py</t>
+  </si>
+  <si>
+    <t>./project/log/MODELO/VERSION</t>
+  </si>
+  <si>
+    <t>summary.csv</t>
+  </si>
+  <si>
+    <t>submissions/predsX.csv</t>
+  </si>
+  <si>
+    <t>crop_video (cropped directly the interpreter square at the bottom right of the frame)</t>
+  </si>
+  <si>
+    <t>convertToLine (transcript)</t>
+  </si>
+  <si>
+    <t>convert_subtitle_sentence (transcript to srt)</t>
+  </si>
+  <si>
+    <t>convertVideoToDict</t>
+  </si>
+  <si>
+    <t>segmentedSRT (parameter to crop according to interpreter square size)</t>
+  </si>
+  <si>
+    <t>cropped &amp; resize (media pipe)</t>
+  </si>
+  <si>
+    <t>convertToDict (mediapipe)</t>
+  </si>
+  <si>
+    <t>Quitar el cropped y sólo dejar la generación del diccionario (keypoints) y por eso usa el mediapipe</t>
+  </si>
+  <si>
+    <t>Solamente para PUCP y en caso haya mucha variación en las grabaciones para poder usar mediapipe para el corte de cada frame</t>
+  </si>
+  <si>
+    <t>crop para AEC</t>
+  </si>
+  <si>
+    <t>En el README file mencionamos explícitamente qué scripts pertenecen al framework. Y de los otros comentamos que son preprocesamientos para modelos futuros</t>
+  </si>
+  <si>
+    <t>splitTranscriptToLine</t>
+  </si>
+  <si>
+    <t>convertToAudioSRT</t>
+  </si>
+  <si>
+    <t>resizeVideoByFrame</t>
+  </si>
+  <si>
+    <t>croppInterpreter</t>
+  </si>
+  <si>
+    <t>croppInterpreterBySRT</t>
+  </si>
+  <si>
+    <t>generateKeypoints</t>
   </si>
 </sst>
 </file>
@@ -381,12 +441,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -481,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -524,6 +590,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -550,13 +617,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -599,7 +666,101 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1746082</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>74388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>336259</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119195</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFD23CA-AE2B-43C4-BA0F-2E4931ABD4F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4129200" y="1747800"/>
+            <a:ext cx="540000" cy="1352160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Ink 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFD23CA-AE2B-43C4-BA0F-2E4931ABD4F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4120200" y="1738800"/>
+              <a:ext cx="557640" cy="1369800"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2022-01-15T22:41:16.341"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1500 3756 24575,'0'0'-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1998.82">1500 3756 24575,'-50'-14'0,"-66"-10"0,54 12 0,-743-123 0,795 134 0,0-1 0,-1 0 0,1 0 0,0-1 0,0-1 0,1 0 0,-1 0 0,1-1 0,0 0 0,0 0 0,0-1 0,1 0 0,0-1 0,0 0 0,-12-13 0,-3-10 0,2-1 0,0 0 0,-22-49 0,24 43 0,-29-64 0,43 87 0,0-1 0,1 1 0,0-1 0,1 0 0,-1-21 0,-5-93 0,-1-23 0,12-19 0,-8-114 0,2 260 0,-1 0 0,-1 1 0,-1 0 0,-16-36 0,2 4 0,16 41 0,1-1 0,1 1 0,1-1 0,0 1 0,0-20 0,7-80 0,-4 106 0,6-76 0,4 0 0,32-125 0,-36 185 0,5-23 0,3 1 0,1 0 0,39-78 0,71-144 0,-103 212 0,4-1 0,2 1 0,2 1 0,3 2 0,53-65 0,-74 104 0,0 1 0,1 0 0,0 1 0,1 1 0,0 0 0,1 1 0,1 0 0,-1 2 0,2 0 0,34-13 0,10-1 0,-27 9 0,1 2 0,0 1 0,0 1 0,45-5 0,26 13 0,-18 1 0,-83 0 28,1 0-1,-1 0 0,0 0 0,0-1 1,0 0-1,-1 0 0,1 0 0,0-1 1,5-3-1,4-4-110,24-21-1,5-4-1387,-28 24-5355</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3625.18">1168 0 24575,'20'17'0,"0"-1"0,1-2 0,1 0 0,42 20 0,-46-25 0,-4-2 0,0 1 0,-1 0 0,0 1 0,18 16 0,-26-21 0,-1 0 0,-1 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,-1-1 0,0 1 0,1 9 0,-1-1 0,-2-1 0,1 1 0,-2 0 0,-5 23 0,5-29 0,0 1 0,-1-1 0,0-1 0,0 1 0,-1 0 0,0-1 0,0 0 0,-1 0 0,-5 7 0,-46 56-1365,46-57-5461</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB7090D-99F1-40E7-BF9F-C70133EFBB79}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -912,12 +1073,13 @@
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="5.453125" customWidth="1"/>
     <col min="5" max="5" width="5.08984375" customWidth="1"/>
-    <col min="7" max="7" width="24.6328125" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="27.90625" customWidth="1"/>
+    <col min="6" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="8" width="24.6328125" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -929,14 +1091,15 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K1" s="4"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -948,16 +1111,17 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="7"/>
       <c r="C3" s="2"/>
@@ -965,123 +1129,135 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="8"/>
       <c r="D4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K5" s="6"/>
+      <c r="N5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="8"/>
       <c r="E6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="9"/>
+      <c r="B8" s="8"/>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="13"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="E9" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="9"/>
       <c r="B10" s="8"/>
-      <c r="D10" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
       <c r="B11" s="8"/>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
       <c r="B12" s="8"/>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="G12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" s="6"/>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="15"/>
       <c r="C13" s="13"/>
@@ -1089,172 +1265,162 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="16"/>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="D15" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="6"/>
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
+    <row r="17" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="6"/>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="K17" s="6"/>
-      <c r="M17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="M18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="23" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>26</v>
+      <c r="E22" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="25" t="s">
+        <v>69</v>
+      </c>
       <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>75</v>
-      </c>
+      <c r="L22" s="6"/>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
       <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="E23" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L23" s="6"/>
+      <c r="N23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="15"/>
       <c r="C24" s="13"/>
@@ -1262,176 +1428,286 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
       <c r="B26" s="8"/>
-      <c r="D26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>81</v>
+      <c r="C26" s="6"/>
+      <c r="D26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B27" s="8"/>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="B28" s="8"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="E29" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B30" s="8"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+      <c r="D31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>78</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="F30" t="s">
+      <c r="B32" s="8"/>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K32" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="F31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B33" s="8"/>
-      <c r="F33" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B34" s="8"/>
-      <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
-        <v>93</v>
-      </c>
+      <c r="E34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B35" s="8"/>
       <c r="F35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
-        <v>94</v>
+        <v>77</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B36" s="8"/>
       <c r="F36" t="s">
-        <v>32</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
       <c r="B37" s="8"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="B38" s="8"/>
-      <c r="E38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
-        <v>91</v>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B39" s="8"/>
       <c r="F39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="8"/>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="8"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B43" s="8"/>
+      <c r="E43" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J46" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
         <v>96</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="14" t="s">
+      <c r="E47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="F40" t="s">
-        <v>97</v>
+      <c r="J48" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J22:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -1457,7 +1733,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1467,242 +1743,242 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
